--- a/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第28章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与凤凰社 第28章 角色统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>角色</t>
   </si>
@@ -34,21 +34,21 @@
     <t>斯内普</t>
   </si>
   <si>
+    <t>波特</t>
+  </si>
+  <si>
     <t>麦格</t>
   </si>
   <si>
-    <t>波特</t>
-  </si>
-  <si>
     <t>马尔福</t>
   </si>
   <si>
+    <t>纳威</t>
+  </si>
+  <si>
     <t>邓布利多</t>
   </si>
   <si>
-    <t>纳威</t>
-  </si>
-  <si>
     <t>伏地魔</t>
   </si>
   <si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>西比尔</t>
+  </si>
+  <si>
+    <t>斯普劳特</t>
   </si>
   <si>
     <t>丽塔</t>
@@ -440,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,7 +503,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -511,7 +514,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -522,7 +525,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -533,7 +536,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -544,7 +547,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -566,7 +569,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -577,7 +580,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -588,18 +591,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -610,7 +613,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -621,7 +624,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -632,13 +635,13 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -654,7 +657,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -665,7 +668,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -682,6 +685,17 @@
         <v>22</v>
       </c>
       <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
     </row>
